--- a/1. Laporan hasil/2. hasil M1 - tanpa random state/evaluasi M1 tanpa random state.xlsx
+++ b/1. Laporan hasil/2. hasil M1 - tanpa random state/evaluasi M1 tanpa random state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\1. Laporan hasil\2. hasil M1 - tanpa random state\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81FC53F-ECBB-46B2-98CF-48748D30C72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366E49EC-3F3A-4EF6-8E0A-9A0A31935CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1749,16 +1749,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="Q23:T23"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="Q23:T23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3006,16 +3006,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="Q23:T23"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="G5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="Q5:T5"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="Q23:T23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
